--- a/file/daejeon-yuseong-gu.xlsx
+++ b/file/daejeon-yuseong-gu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metanet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37EABC1-8422-4666-BEF5-2BDD8D14EA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA305AE-91A3-4E85-BD66-100E8B8A428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74945E33-7504-4177-9520-3055DEAC0101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>유성둔곡지구서한이다음1단지</t>
   </si>
@@ -92,27 +92,6 @@
     <t>호반써밋유성그랜드파크</t>
   </si>
   <si>
-    <t>송강그린경남/삼성/미도파</t>
-  </si>
-  <si>
-    <t>청솔_태영/신호/뉴서울</t>
-  </si>
-  <si>
-    <t>한마을</t>
-  </si>
-  <si>
-    <t>한솔계룡,태영</t>
-  </si>
-  <si>
-    <t>청솔한양</t>
-  </si>
-  <si>
-    <t>유성대광로제비앙</t>
-  </si>
-  <si>
-    <t>하늘바람휴먼시아</t>
-  </si>
-  <si>
     <t>삼성푸른</t>
   </si>
   <si>
@@ -275,37 +254,10 @@
     <t>어울림하트</t>
   </si>
   <si>
-    <t>하우스토리</t>
-  </si>
-  <si>
-    <t>운암네오미아</t>
-  </si>
-  <si>
-    <t>유성숲오투그란데3차</t>
-  </si>
-  <si>
-    <t>대전드리움1단지</t>
-  </si>
-  <si>
-    <t>대전드리움2단지</t>
-  </si>
-  <si>
-    <t>미메이드</t>
-  </si>
-  <si>
-    <t>제이파크</t>
-  </si>
-  <si>
-    <t>샘물타운</t>
-  </si>
-  <si>
-    <t>진잠타운</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>아파트명</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -334,18 +286,18 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -391,13 +343,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,11 +392,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,39 +438,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -528,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -639,6 +633,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -647,13 +648,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -718,31 +712,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -752,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE60CA7-BB33-41B9-99A3-BBCCD7FD47C6}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -761,720 +735,656 @@
     <col min="2" max="2" width="32.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>131324</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>131906</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>122872</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>100352</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>111335</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>100350</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>23690</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>23707</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>17471</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>17470</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>100524</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>24865</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>17466</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>17468</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>19318</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>17467</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>23725</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>135826</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>25256</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="6">
+        <v>6046</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>6142</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="6">
+        <v>6051</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>6143</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="8">
+        <v>6077</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>24761</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="8">
+        <v>8679</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>6144</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="6">
+        <v>8680</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>127122</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="8">
+        <v>6070</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>26940</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="6">
+        <v>8574</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>6046</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="8">
+        <v>109036</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>6051</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="8">
+        <v>114293</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>6077</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>8679</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="8">
+        <v>6149</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>8680</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="8">
+        <v>6158</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>6070</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="6">
+        <v>10351</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>8574</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="6">
+        <v>11047</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>109036</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="8">
+        <v>117898</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>114293</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="8">
+        <v>106496</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>6147</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="8">
+        <v>103356</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>6149</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="6">
+        <v>103357</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>6158</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="8">
+        <v>107820</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>10351</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="8">
+        <v>107033</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>11047</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="6">
+        <v>109501</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>117898</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="6">
+        <v>106497</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>106496</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="6">
+        <v>106185</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>103356</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="8">
+        <v>11049</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>103357</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="8">
+        <v>142785</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>107820</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="6">
+        <v>113124</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>107033</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="8">
+        <v>8469</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>109501</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="6">
+        <v>8468</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>106497</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="8">
+        <v>6135</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>106185</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="8">
+        <v>8472</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>11049</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="6">
+        <v>6137</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>142785</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="6">
+        <v>6136</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>113124</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="6">
+        <v>19449</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>8469</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="6">
+        <v>12941</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>8468</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="6">
+        <v>11051</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>6135</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="6">
+        <v>8475</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>8472</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="8">
+        <v>106692</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>6137</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="8">
+        <v>145404</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>6136</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="6">
+        <v>108785</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>19449</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="6">
+        <v>107708</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>12941</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="8">
+        <v>8766</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>11051</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="6">
+        <v>6134</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>8475</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="8">
+        <v>6041</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>106692</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="6">
+        <v>103846</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>145404</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="8">
+        <v>100360</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>108785</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="8">
+        <v>103763</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>107708</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="6">
+        <v>103949</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>8766</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="8">
+        <v>27629</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>6134</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="6">
+        <v>125316</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>6041</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="8">
+        <v>125317</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>103846</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="6">
+        <v>107699</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>100360</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="6">
+        <v>102738</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>103763</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="8">
+        <v>136785</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>103949</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="6">
+        <v>102411</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>27629</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>125316</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>125317</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>107699</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>102738</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>136785</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>102411</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>26408</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>26407</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>114450</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>26501</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>17589</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>19623</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>23188</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>6165</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>6172</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>